--- a/MarsQA-1/SpecflowTests/Data/Mars.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Mars.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="612" windowWidth="1992" windowHeight="1140"/>
+    <workbookView xWindow="516" yWindow="612" windowWidth="1992" windowHeight="1140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="language" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -26,6 +27,39 @@
   </si>
   <si>
     <t>Sonyog325@</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>langupdate</t>
+  </si>
+  <si>
+    <t>langdelete</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>certification</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>symbiosis</t>
+  </si>
+  <si>
+    <t>ISTQB</t>
   </si>
 </sst>
 </file>
@@ -84,12 +118,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -300,7 +335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1325,4 +1360,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MarsQA-1/SpecflowTests/Data/Mars.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Mars.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="612" windowWidth="1992" windowHeight="1140" activeTab="1"/>
+    <workbookView xWindow="516" yWindow="612" windowWidth="1992" windowHeight="1140"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="language" sheetId="2" r:id="rId2"/>
+    <sheet name="ShareSkill" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageListing" sheetId="4" r:id="rId4"/>
+    <sheet name="Join" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>username</t>
   </si>
@@ -26,9 +29,6 @@
     <t>dhanashreek3@gmail.com</t>
   </si>
   <si>
-    <t>Sonyog325@</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -60,12 +60,160 @@
   </si>
   <si>
     <t>ISTQB</t>
+  </si>
+  <si>
+    <t>MVPStudio1506</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Would like to provide selenium training for beginners</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>oneoff</t>
+  </si>
+  <si>
+    <t>Onsite</t>
+  </si>
+  <si>
+    <t>SkillExchange</t>
+  </si>
+  <si>
+    <t>SkillUpdate</t>
+  </si>
+  <si>
+    <t>SkillDelete</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>edUpdate</t>
+  </si>
+  <si>
+    <t>edDelete</t>
+  </si>
+  <si>
+    <t>Sardar Patel</t>
+  </si>
+  <si>
+    <t>CerUpdate</t>
+  </si>
+  <si>
+    <t>CerDelete</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>Deleteaction</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>MVPStudio15062</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>qazxsw</t>
+  </si>
+  <si>
+    <t>MVPStudio</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Studio@qaz.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -94,12 +242,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,13 +272,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -333,43 +492,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="48.19921875" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" customWidth="1"/>
-    <col min="3" max="26" width="7.59765625" customWidth="1"/>
+    <col min="2" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8">
+    <row r="1" spans="1:4" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="13.8">
+    <row r="2" spans="1:4" ht="13.8">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4">
+    <row r="3" spans="1:4" ht="14.4">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" ht="13.8">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="13.8">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1355,7 +1526,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1364,55 +1534,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
+      <c r="K2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="4" width="18.09765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="7" customWidth="1"/>
+    <col min="8" max="12" width="11.3984375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="8">
+        <v>43567</v>
+      </c>
+      <c r="I2" s="9">
+        <v>43597</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="7">
+        <v>20</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="4" width="18.09765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="7" customWidth="1"/>
+    <col min="8" max="12" width="11.3984375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>